--- a/TP2/noticias.xlsx
+++ b/TP2/noticias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\Maestría\Tercer trimestre\Machine Learning\Trabajos-Pr-cticos\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABA258-C027-4C4B-AE53-C7FC21434874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09CCEC-6048-4AF7-A0C9-1E38E8A1072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="269">
   <si>
     <t>Noticia</t>
   </si>
@@ -28,82 +28,241 @@
     <t>Link</t>
   </si>
   <si>
-    <t>El Procurador del Tesoro sostuvo que las casas de altos estudios están alcanzadas por la ley de administración financiera y el control de la Sindicatura General de la Nación; revirtió una resolución del kirchnerismo</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/cambio-de-criterio-una-decision-del-gobierno-habilita-a-la-sigen-a-auditar-a-las-universidades-nid15102024/</t>
-  </si>
-  <si>
-    <t>Cumbre decisiva. Cristina Kirchner y Kicillof se reúnen para intentar encaminar su interna en el PJ</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/cristina-kirchner-y-axel-kicillof-se-reunen-para-intentar-encaminar-su-interna-en-el-pj-nid15102024/</t>
-  </si>
-  <si>
-    <t>¿Qué se viene? La “revolución” de Milei cambia de etapa y se enfrenta a los fantasmas de Macri</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/la-revolucion-de-milei-cambia-de-etapa-y-se-enfrenta-a-los-fantasmas-de-macri-nid15102024/</t>
-  </si>
-  <si>
-    <t>"No se me permitió". Docentes que no pudieron entrar a dar clase en dos facultades de la UBA y alumnos divididos</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sociedad/division-entre-los-alumnos-y-docentes-a-los-que-les-impidieron-entrar-a-dar-clase-en-dos-facultades-nid15102024/</t>
-  </si>
-  <si>
-    <t>Cavallo, aplaudido en Nueva York. Los íconos de los 90 se toman revancha en el corazón financiero del mundo</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/las-empresas-malditas-del-menemismo-se-toman-revancha-en-el-corazon-financiero-del-mundo-nid15102024/</t>
-  </si>
-  <si>
-    <t>Fuertes críticas a las “imposiciones” de la Unión Europea en una reunión regional de legisladores ligados al campo</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/fuertes-criticas-a-las-imposiciones-de-la-union-europea-en-una-reunion-regional-de-legisladores-nid15102024/</t>
-  </si>
-  <si>
-    <t>Argentina - Bolivia, en vivo</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/argentina-bolivia-en-vivo-nid15102024/</t>
-  </si>
-  <si>
-    <t>Advertencia de la UIA por el costo argentino. “Estamos mal pero hay un futuro posible”</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/advertencia-de-la-uia-por-el-costo-argentino-estamos-mal-pero-hay-un-futuro-posible-nid15102024/</t>
-  </si>
-  <si>
-    <t>Ataques sorpresivos: un productor contó el inquietante momento que vivió al encontrarse con uno de los pumas que atemorizan a una región</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/atacan-terneros-y-caballos-un-productor-conto-el-inquietante-momento-que-vivio-al-encontrarse-con-nid14102024/</t>
-  </si>
-  <si>
-    <t>Dólar hoy, dólar blue hoy: a cuánto cotiza este martes 15 de octubre</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/dolar/dolar-hoy-dolar-blue-hoy-a-cuanto-cotiza-este-martes-15-de-octubre-nid15102024/</t>
-  </si>
-  <si>
-    <t>Dólar y mercados. Por qué cae el riesgo país, que perfora los 1100 puntos y toca el valor más bajo desde 2019</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/dolar/mercados-el-riesgo-pais-perfora-la-barrera-de-los-1100-puntos-basicos-y-toca-el-valor-mas-bajo-desde-nid15102024/</t>
-  </si>
-  <si>
-    <t>La Plata. Cinematográfico golpe comando en un banco: los ladrones rompieron un vidrio y se llevaron dinero de la bóveda</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/cinematografico-golpe-comando-en-un-banco-los-delincuentes-rompieron-un-vidrio-y-se-llevaron-dinero-nid15102024/</t>
-  </si>
-  <si>
-    <t>Crece el escándalo en Bolivia. Acusan a Evo Morales de vivir con cuatro menores durante su estadía en la Argentina</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/escandalo-en-bolivia-acusan-a-evo-morales-de-vivir-con-cuatro-menores-durante-su-estadia-en-la-nid15102024/</t>
+    <t>El Presidente se refirió al caso Repsol, la expropiación de YPF y la causa del juez Griesa, y culpó a la exmandataria y al gobernador de la provincia de Buenos Aires</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/milei-dijo-que-cristina-y-axel-kicillof-le-costaron-a-la-argentina-41000-millones-de-dolares-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Me dabas sopapos y me dejabas la cara hirviendo”. Revelan nuevos chats entre Alberto Fernández y Fabiola Yañez</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/revelan-nuevos-chats-entre-alberto-fernandez-y-fabiola-yanez-me-dabas-sopapos-y-me-dejabas-la-cara-nid16102024/</t>
+  </si>
+  <si>
+    <t>Uno por uno. El Gobierno oficializó la reducción de aranceles a la importación en 89 productos</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/el-gobierno-oficializo-la-reduccion-de-aranceles-a-la-importacion-en-89-productos-nid16102024/</t>
+  </si>
+  <si>
+    <t>La electricidad del amor. Messi y las centellas de una noche inmensamente feliz, que siempre puede ser la última</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/messi-la-electricidad-del-amor-centellas-de-una-noche-inmensamente-feliz-que-siempre-puede-ser-la-nid15102024/</t>
+  </si>
+  <si>
+    <t>Alfaro mete a Paraguay. Así quedó la tabla de posiciones de las eliminatorias sudamericanas, tras la fecha 10</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/asi-quedo-la-tabla-de-posiciones-de-las-eliminatorias-sudamericanas-tras-la-fecha-10-nid15102024/</t>
+  </si>
+  <si>
+    <t>Bullrich dijo que los alumnos que toman universidades quieren “generar una revuelta” como en Chile</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/bullrich-dijo-que-los-alumnos-que-toman-universidades-quieren-generar-una-revuelta-como-en-chile-nid16102024/</t>
+  </si>
+  <si>
+    <t>El Gobierno oficializó la reducción de aranceles a la importación en 89 productos</t>
+  </si>
+  <si>
+    <t>Preocupación: denuncian que en el norte hay tres animales exóticos fuera de control que provocan graves daños</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/campo/preocupacion-denuncian-que-en-el-norte-del-pais-hay-tres-animales-exoticos-fuera-de-control-nid16102024/</t>
+  </si>
+  <si>
+    <t>Javier Milei, en vivo: las últimas medidas del Gobierno</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/javier-milei-en-vivo-las-ultimas-medidas-del-gobierno-nid16102024/</t>
+  </si>
+  <si>
+    <t>Milei dijo que Cristina Kirchner y Axel Kicillof le costaron a la Argentina US$41.000 millones</t>
+  </si>
+  <si>
+    <t>“Van a ir con molotovs”. Bullrich dijo que los alumnos que toman universidades quieren “generar una revuelta” como en Chile</t>
+  </si>
+  <si>
+    <t>La asamblea del jueves. La posible sanción drástica del Gobierno a AFA y un temor: ¿suspenderá FIFA a la selección y los clubes?</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/las-sanciones-a-las-que-se-expone-afa-si-hace-la-asamblea-completa-desde-un-apercibimiento-hasta-a-nid15102024/</t>
+  </si>
+  <si>
+    <t>Puerto Madero: US$46,32. Los precios por día de los Airbnb porteños y las claves para tenerlo alquilado todo el año</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/propiedades/puerto-madero-us4632-los-precios-de-los-airbnb-en-buenos-aires-y-las-claves-para-tenerlo-alquilado-nid16102024/</t>
+  </si>
+  <si>
+    <t>El video del ataque. Se subió al colectivo y mató al chofer a puñaladas: aseguran que su esposa tuvo una relación con la víctima</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/un-hombre-se-subio-al-colectivo-y-mato-al-chofer-a-punaladas-en-glew-nid16102024/</t>
+  </si>
+  <si>
+    <t>Una marca única. El reto en 360 grados: la Argentina quiere dar la vuelta al mundo en cinco años</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/el-reto-en-360-la-argentina-quiere-dar-la-vuelta-al-mundo-en-cinco-anos-nid16102024/</t>
+  </si>
+  <si>
+    <t>Impactante. La periodista argentina que adivinó el resultado y casi todos los goleadores de la paliza de Argentina ante Bolivia</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/la-periodista-argentina-que-adivino-el-resultado-y-casi-todos-los-goleadores-de-la-paliza-de-nid16102024/</t>
+  </si>
+  <si>
+    <t>Para seguir soñando. Un capitán rejuvenecido, un DT con más jugadores y una selección casi sin rivales</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/un-capitan-rejuvenecido-un-dt-con-una-base-mas-amplia-de-jugadores-y-una-seleccion-casi-sin-rivales-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Parezco un pibe". Después del hat-trick y las dos asistencias, Messi contó que se cuidó "de más" y dejó una advertencia</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/lionel-messi-volvio-al-monumental-anoto-tres-goles-e-hizo-dos-asistencias-en-el-triunfo-de-argentina-nid15102024/</t>
+  </si>
+  <si>
+    <t>Dos argentinos y un récord. La exhaustiva preparación para una coreografía calculada al milímetro desde la estratósfera</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/sociedad/dos-argentinos-y-un-record-la-exhaustiva-preparacion-para-una-coreografia-calculada-al-milimetro-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Democracia erosionada". El presidente de Poder Ciudadano advirtió sobre los riesgos del modelo de Milei</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/el-presidente-de-poder-ciudadano-alerto-sobre-el-riesgo-de-caer-en-una-democracia-erosionada-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Hay un 50% más de casas". La ciudad de la provincia de Buenos Aires que no para de crecer y es la elegida para mudarse</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/propiedades/casas-y-departamentos/la-ciudad-de-la-provincia-de-buenos-aires-que-no-para-de-crecer-y-es-la-elegida-para-mudarse-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Me gusta ser famosa". Mirtha Legrand: su desconocido primer nombre artístico y por qué nunca fue a su programa su hermana Goldy</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/personajes/mirtha-legrand-su-desconocido-primer-nombre-artistico-y-por-que-nunca-fue-a-su-programa-su-hermana-nid16102024/</t>
+  </si>
+  <si>
+    <t>¿Nueva estafa? Los creadores de RainbowEX lanzaron otra app donde ofrecen una ganancia aún mayor</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/nueva-estafa-los-creadores-de-rainbowex-lanzaron-una-nueva-plataforma-donde-ofrecen-un-porcentaje-nid16102024/</t>
+  </si>
+  <si>
+    <t>Nuevas medidas. El sector universitario convoca a una marcha de velas y otro paro por 48 horas: cuándo serán</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/sociedad/nuevas-medidas-el-sector-universitario-convoca-a-una-marcha-de-velas-y-otro-paro-por-48-horas-nid15102024/</t>
+  </si>
+  <si>
+    <t>La muerte, un sueño recurrente. Así comienza lo nuevo de Han Kang, que vendió un millón de libros solo en Corea tras ganar el Premio Nobel</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/cultura/asi-comienza-imposible-decir-adios-el-nuevo-libro-de-la-ganadora-del-premio-nobel-que-se-publicara-nid16102024/</t>
+  </si>
+  <si>
+    <t>Posible caída de granizo. Alerta amarilla por tormentas fuertes en Buenos Aires y otras ocho provincias</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/sociedad/alerta-amarilla-por-tormentas-fuertes-en-buenos-aires-y-otras-ocho-provincias-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Cartita llorando". Milei volvió a atacar a un periodista: lo llamó militante y mentiroso</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/javier-milei-volvio-a-atacar-a-un-periodista-lo-llamo-militante-y-mentiroso-nid16102024/</t>
+  </si>
+  <si>
+    <t>Ahorcado en una celda. El hombre acusado de matar a su pareja en un hotel alojamiento apareció muerto en una comisaría de Tandil</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/el-hombre-acusado-de-matar-a-su-pareja-en-un-hotel-alojamiento-aparecio-muerto-en-una-comisaria-de-nid15102024/</t>
+  </si>
+  <si>
+    <t>Nations League. La furia de Cristiano Ronaldo en el final del partido de Portugal y el defensor del título que se clasificó</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/uefa-nations-league-espana-logro-la-clasificacion-a-cuartos-de-final-y-cristiano-ronaldo-termino-nid15102024/</t>
+  </si>
+  <si>
+    <t>Vivo de milagro. Iba distraído con el celular, quiso cruzar las vías y, por centímetros, no fue arrollado por un tren</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/vivo-de-milagro-iba-distraido-con-el-celular-quiso-cruzar-las-vias-y-por-centimetros-no-fue-nid15102024/</t>
+  </si>
+  <si>
+    <t>Muy querido por los argentinos. Así es el nuevo Renault 4, un ícono que vuelve en modo 100% eléctrico</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/autos/asi-es-el-nuevo-renault-4-un-icono-que-vuelve-en-modo-100-electrico-nid15102024/</t>
+  </si>
+  <si>
+    <t>Probó suerte en varios países. Hoy vive en una casa de 2 mil euros: “Es un lugar que no sabía que existía y ahora amo”</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/dejo-argentina-dos-veces-y-hoy-vive-en-una-casa-de-2-mil-euros-en-el-este-de-alemania-es-un-lugar-nid29032023/</t>
+  </si>
+  <si>
+    <t>Vínculos. El arte de enamorarse y la trampa de pensar que se encontró a la “persona soñada”</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/salud/mente/el-arte-de-enamorarse-y-la-trampa-de-pensar-que-se-encontro-a-la-persona-sonada-nid14102024/</t>
+  </si>
+  <si>
+    <t>En todo el mundo. Por qué tantos trabajadores chinos son objeto de ataques y asesinatos</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/por-que-tantos-trabajadores-chinos-son-objeto-de-ataques-y-asesinatos-alrededor-del-mundo-nid16102024/</t>
+  </si>
+  <si>
+    <t>Tensión y hermetismo. Cristina Kirchner y Kicillof se reunieron más de tres horas para aplacar la interna del PJ</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/cristina-kirchner-y-axel-kicillof-se-reunieron-mas-de-tres-horas-para-aplacar-la-tension-interna-en-nid15102024/</t>
+  </si>
+  <si>
+    <t>Escándalo en Diputados. El kirchnerismo arremetió contra Bullrich por los operativos antipiquetes y la ministra reaccionó</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/para-flaco-el-kirchnerismo-arremetio-duro-contra-bullrich-por-los-operativos-antipiquetes-y-la-nid15102024/</t>
+  </si>
+  <si>
+    <t>Privatizaciones. El Gobierno designó cuatro directores dentro de la Agencia de Transformación de Empresas Públicas</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/privatizaciones-el-gobierno-designo-cargos-dentro-de-la-agencia-de-transformacion-de-empresas-nid16102024/</t>
+  </si>
+  <si>
+    <t>Acusado de corrupción. Rechazan la prisión domiciliaria al exjuez Bento, pero le otorgan una “salida excepcional”</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/acusado-de-corrupcion-por-riesgo-de-fuga-le-rechazan-la-domiciliaria-al-exjuez-bento-pero-le-otorgan-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Nuevos retos". Dinamarca y Suecia se suman a Noruega y buscan prohibir los matrimonios entre primos</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/dinamarca-y-suecia-se-suman-a-noruega-y-buscan-prohibir-los-matrimonios-entre-primos-nid16102024/</t>
+  </si>
+  <si>
+    <t>Según los especialistas. ¿Existe el amor a primera vista?</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/existe-el-amor-a-primera-vista-nid16102024/</t>
+  </si>
+  <si>
+    <t>“Alguna diferencia”. Renunció el presidente del INTA y el Gobierno definirá a su sucesor en los próximos días</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/campo/alguna-diferencia-renuncio-el-presidente-del-inta-y-el-gobierno-definira-a-su-sucesor-en-los-nid15102024/</t>
   </si>
   <si>
     <t>“Una torre monstruosa”. Fuerte polémica por el edificio de 35 pisos proyectado en una zona histórica de Mar del Plata</t>
@@ -112,64 +271,160 @@
     <t>https://www.lanacion.com.ar/sociedad/kovadloff-sabsay-y-otros-intelectuales-criticaron-la-torre-de-35-pisos-que-se-levantara-en-una-zona-nid15102024/</t>
   </si>
   <si>
-    <t>Fútbol y poder. La IGJ suspende las elecciones en la AFA y el Gobierno le declara la guerra a Chiqui Tapia</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/la-inspeccion-general-de-justicia-suspende-las-elecciones-en-la-afa-y-el-gobierno-le-declara-la-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Sin cuidado". Pese a la suspensión, la AFA se ampara en un fallo judicial y asegura que podrán reelegir a Tapia</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/la-afa-asegura-que-la-asamblea-del-jueves-no-corre-peligro-y-se-basa-en-un-fallo-judicial-para-nid15102024/</t>
-  </si>
-  <si>
-    <t>La reacción del jugador. La Justicia de Suecia investiga un caso de abuso sexual que salpica a Mbappé</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/la-justicia-de-sueca-investiga-un-caso-de-abuso-sexual-que-salpica-a-mbappe-nid15102024/</t>
-  </si>
-  <si>
-    <t>Revelador informe. Los dos indicadores que empeoraron entre los adultos mayores en la última década y preocupan</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sociedad/revelador-informe-los-dos-indicadores-que-empeoraron-entre-los-adultos-mayores-en-la-ultima-decada-y-nid15102024/</t>
-  </si>
-  <si>
-    <t>Kuitca se encuentra con Picasso. El argentino de las camas y los mapas pintó una capilla cubista en París, el mayor encargo de su vida</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/cultura/guillermo-kuitca-en-el-museo-picasso-cincuenta-anos-de-carrera-y-una-capilla-cubista-nid14102024/</t>
-  </si>
-  <si>
-    <t>Pagos en dólares. Los avances del Gobierno hacia la competencia de monedas y qué falta</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/dolar/pagos-en-dolares-los-avances-que-se-dieron-hacia-la-competencia-de-monedas-y-que-falta-nid15102024/</t>
-  </si>
-  <si>
-    <t>Mirtha Legrand, en su casa. Kinesiología dos veces por semana, la intimidad del clan y los secretos de su vigencia</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/una-charla-unica-con-mirtha-legrand-nid25092024/</t>
-  </si>
-  <si>
-    <t>“Macartismo”. Longobardi le respondió a Milei, que lo acusó de “mentiroso”, y habló de “tres payasos irresponsables”</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/longobardi-le-respondio-a-milei-que-lo-acuso-de-mentiroso-y-hablo-de-tres-payasos-irresponsables-nid15102024/</t>
-  </si>
-  <si>
-    <t>En cajas, baldes y en los techos de los autos. Un camión que cargaba pollos volcó en la Ruta 2 y la gente que pasaba se llevó la mercadería</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sociedad/un-camion-que-cargaba-pollos-volco-en-la-ruta-2-y-la-gente-que-pasaba-se-llevo-la-mercaderia-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Perdido". La inesperada aparición de Macri en un video de la campaña demócrata en el que cuestiona el estado de salud de Trump</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/estados-unidos/la-inesperada-aparicion-de-macri-en-un-video-de-la-campana-democrata-en-el-que-cuestiona-el-estado-nid15102024/</t>
+    <t>"Defensa necesaria". Sobreseyeron a la mujer policía que mató a un ladrón que le robó el teléfono celular</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/sobreseyeron-a-la-mujer-policia-que-mato-a-un-ladron-que-le-robo-el-telefono-celular-nid15102024/</t>
+  </si>
+  <si>
+    <t>Mariano Martínez. Entramos a la fiesta de 15 de su hija Olivia: fotos exclusivas y todos los detalles</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/revista-hola/mariano-martinez-entramos-a-la-fiesta-de-15-de-su-hija-olivia-fotos-exclusivas-y-todos-los-detalles-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Ella le cuida el patrimonio". Karina Antoniali, amiga de Elba Marcovecchio, habló sobre la disputa entre la mujer y las hijas de Jorge Lanata</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/personajes/karina-antoniali-amiga-de-elba-marcovecchio-hablo-sobre-la-disputa-entre-la-mujer-y-las-hijas-de-nid15102024/</t>
+  </si>
+  <si>
+    <t>Sumergida en los Valles Calchaquíes. Se instaló en una casa prefabricada para restaurar un histrórico rancho de adobe y les dio a ambos una belleza sin tiempo</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/revista-living/en-medio-de-los-valles-calchaquies-una-cabana-prefabricada-revestida-de-encanto-salteno-nid16102024/</t>
+  </si>
+  <si>
+    <t>Tienen más de 80 años y nunca habían probado un yogur. La dramática situación que expone cómo se perpetuó la pobreza</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/comunidad/tienen-mas-de-80-anos-y-nunca-habian-probado-un-yogur-la-situacion-que-expone-como-se-perpetuo-la-nid15102024/</t>
+  </si>
+  <si>
+    <t>“Me pagó un montón por ese trabajo”. Al Pacino recordó el momento en el que Adam Sandler lo salvó de la bancarrota</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/personajes/al-pacino-recordo-el-momento-en-el-que-adam-sandler-lo-salvo-de-la-bancarrota-me-pago-un-monton-por-nid16102024/</t>
+  </si>
+  <si>
+    <t>“4-7-8″. El método que, según especialistas, puede ayudar a dormir</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/sociedad/el-metodo-4-7-8-que-podria-ayudar-a-conciliar-el-sueno-explicado-por-especialistas-nid16102024/</t>
+  </si>
+  <si>
+    <t>Nueva tendencia. “Colapinto fue toda una sorpresa”: por qué ahora llegan a la Fórmula 1 jóvenes promesas que rinden enseguida</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/automovilismo/las-razones-por-las-que-franco-colapinto-y-otros-novatos-no-desentonan-en-la-formula-1-apenas-llegan-nid16102024/</t>
+  </si>
+  <si>
+    <t>Fútbol y política. Medio siglo después, Talleres enfrenta otra vez a la AFA</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/medio-siglo-despues-talleres-otra-vez-enfrenta-a-la-afa-nid16102024/</t>
+  </si>
+  <si>
+    <t>Milito vs. Blanco. Cómo quedó el mapa electoral de Racing, después de todas las divisiones</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/racing/como-quedo-el-mapa-electoral-de-racing-despues-de-todas-las-divisiones-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Esto es maravilloso". Scaloni describió lo que le genera Messi, las virtudes del equipo y el debut de Nico Paz</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/lionel-scaloni-hablo-sobre-lo-que-le-genera-lionel-messi-y-describio-las-principales-virtudes-de-la-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Años muy intensos". China Suárez, entre su primer amor, flechazos y escándalos</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/personajes/china-suarez-entre-su-primer-amor-flechazos-y-escandalos-nid16102024/</t>
+  </si>
+  <si>
+    <t>No tenía síntomas. Un hallazgo en un chequeo de rutina lo hizo pensar en la muerte: “La palabra oncohematológica me golpeó duro”</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/no-tenia-sintomas-un-hallazgo-en-un-chequeo-de-rutina-lo-hizo-pensar-en-la-muerte-la-palabra-nid16102024/</t>
+  </si>
+  <si>
+    <t>Ventajas. El fruto seco bueno para la salud cerebral y que reduce el riesgo de enfermedades cardiovasculares</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/campo/ventajas-el-fruto-seco-bueno-para-la-salud-cerebral-y-que-reduce-el-riesgo-de-enfermedades-nid16102024/</t>
+  </si>
+  <si>
+    <t>Lo mejor de la coctelería. Cómo nacieron los tragos insignia que vuelven a las barras porteñas</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/sabado/semana-de-la-cocteleria-el-origen-de-los-tragos-que-vuelven-a-las-barras-portenas-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Se volvió viral". Los 3 errores que tenés que evitar en tu decoración según una diseñadora de interiores</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/propiedades/casas-y-departamentos/los-3-errores-que-tenes-que-evitar-en-tu-decoracion-segun-una-disenadora-de-interiores-nid15102024/</t>
+  </si>
+  <si>
+    <t>Aporte de magnesio y potasio. Qué tan real es que la banana ayuda a prevenir los calambres y por qué</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/las-bananas-el-magnesio-y-el-potasio-que-tan-real-es-que-esta-fruta-ayuda-a-prevenir-los-calambres-y-nid16102024/</t>
+  </si>
+  <si>
+    <t>Emprendedores. Crearon un revolucionario método de predicción con inteligencia artificial y la NASA ahora los quiere conocer</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/campo/emprendedores-crearon-un-revolucionario-metodo-de-prediccion-con-inteligencia-artificial-y-la-nasa-nid15102024/</t>
+  </si>
+  <si>
+    <t>Trivia. ¿Cuánto sabés sobre “Toy Story”?</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/juegos/trivias/trivia-exclusiva-cuanto-sabes-sobre-toy-story-nid16102024/</t>
+  </si>
+  <si>
+    <t>Fin del misterio. L-Gante se cansó y reveló qué pasó en verdad con Wanda Nara</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/l-gante-se-canso-y-revelo-que-paso-en-verdad-con-wanda-nara-nid15102024/</t>
+  </si>
+  <si>
+    <t>Empanadas tucumanas. Cinco lugares consagrados y el debate: ¿son más ricas que las salteñas?</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/revista-lugares/donde-comer-las-mejores-empanadas-tucumanas-los-secretos-de-este-clasico-norteno-nid16102024/</t>
+  </si>
+  <si>
+    <t>Clarísimo. La contundente frase de Anto Roccuzzo sobre Messi tras el triunfo en el Monumental</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/la-contundente-frase-de-antonela-roccuzzo-sobre-lionel-messi-tras-el-triunfo-en-el-monumental-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Potencial innovador". La inversión que generó más de 85.000 nuevos millonarios en el último año</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/IA/cuantos-nuevos-millonarios-y-multimillonarios-cripto-hay-en-el-mundo-nid16102024/</t>
+  </si>
+  <si>
+    <t>Detrás del "apocalipsis de los deberes". “Los estudiantes que usan la IA como muleta no aprenden nada”, dice un experto</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/tecnologia/ethan-mollick-experto-en-inteligencia-artificial-los-estudiantes-que-usan-la-ia-como-muleta-no-nid15102024/</t>
+  </si>
+  <si>
+    <t>Según OpenAI. China e Irán están usando ChatGPT para crear código malicioso y organizar ataques cibernéticos</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/tecnologia/china-e-iran-estan-usando-chatgpt-para-crear-codigo-malicioso-y-openai-lo-sabe-nid16102024/</t>
+  </si>
+  <si>
+    <t>Primera imagen. El director de la nueva película de Superman confirmó la presencia de un querido personaje</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/cine/superman-el-director-de-la-nueva-pelicula-confirmo-la-presencia-de-un-querido-personaje-y-mostro-una-nid16102024/</t>
   </si>
   <si>
     <t>"No pueden sospechar de mí". Pampita Ardohain se desligó de la denuncia por corrupción contra García Moritán</t>
@@ -178,70 +433,46 @@
     <t>https://www.lanacion.com.ar/espectaculos/personajes/pampita-ardohain-se-desligo-de-la-denuncia-por-corrupcion-contra-garcia-moritan-nadie-puede-nid15102024/</t>
   </si>
   <si>
-    <t>“No soy Satoshi”. La obsesiva búsqueda por el creador de una fortuna de más de US$62.000 millones</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/IA/no-soy-satoshi-nakamoto-la-obsesiva-busqueda-por-el-creador-de-una-fortuna-de-mas-de-us62000-nid15102024/</t>
-  </si>
-  <si>
-    <t>A FONDO Dame la faca, te doy la Biblia. Los inesperados aliados que ayudaron a pacificar a los narcos rosarinos</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/fui-devoto-de-san-la-muerte-el-disruptivo-trabajo-de-pastores-evangelicos-con-los-presos-mas-temidos-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Se mató por nada". El trágico final de Leonardo Simons: el peso del deshonor y las tres cartas de despedida</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/el-tragico-final-de-leonardo-simons-el-peso-del-deshonor-y-las-3-cartas-de-despedida-nid15102024/</t>
-  </si>
-  <si>
-    <t>"El Hombre Gris". Era uno de los personajes más sádicos de Nueva York, pero se ocultaba tras la fachada de una vida ordinaria</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/era-uno-de-los-personajes-mas-sadicos-de-nueva-york-pero-se-ocultaba-tras-la-fachada-de-una-vida-nid15102024/</t>
-  </si>
-  <si>
-    <t>Reina Máxima. Las fotos inéditas (y divertidas) del cumpleaños número 80 de su madre María del Carmen</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/revista-hola/reina-maxima-las-fotos-ineditas-y-divertidas-del-cumpleanos-numero-80-de-su-madre-maria-del-carmen-nid15102024/</t>
-  </si>
-  <si>
-    <t>Cumplió 90 años. Cómo nació la icónica pizzería porteña donde siempre hay fila</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sabado/la-historia-de-la-iconica-pizzeria-portena-donde-siempre-hay-fila-nid15102024/</t>
-  </si>
-  <si>
-    <t>Asociación ilícita. Uno de los sindicalistas más poderosos de Córdoba ofrece US$750.000 para no ser condenado</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/uno-de-los-sindicalistas-mas-poderosos-de-cordoba-ofrece-us750000-para-no-ser-condenado-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Renovación genuina". La CGT se involucra en la interna del PJ y toma distancia de Cristina Kirchner</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/la-cgt-se-involucra-en-la-interna-del-pj-y-toma-distancia-de-cristina-kirchner-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Soluciones creativas del populismo". Guillermo Francos apuntó contra Cristina Kirchner por un fallo adverso contra la Argentina</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/javier-milei-en-vivo-las-ultimas-medidas-del-gobierno-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Ni dedo ni lapicera". Un rival de Máximo Kirchner le pidió a Cristina que se corra de la interna del PJ</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/un-rival-de-maximo-kirchner-le-pidio-a-cristina-que-se-corra-de-la-interna-del-pj-ni-dedo-ni-nid15102024/</t>
-  </si>
-  <si>
-    <t>Reconciliación. Aníbal Fernández dice que tuvo una “muy buena” reunión con Cristina Kirchner, tras dos años sin hablarse</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/anibal-fernandez-dice-que-tuvo-una-muy-buena-reunion-con-cristina-kirchner-tras-dos-anos-sin-nid15102024/</t>
+    <t>"Era una prefabricada". La insólita historia detrás de la casa de casi US$30 millones del ex CEO de Morgan Stanley</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/propiedades/casas-y-departamentos/la-insolita-historia-detras-de-la-casa-que-vale-casi-us30-millones-del-ex-ceo-de-morgan-stanley-nid15102024/</t>
+  </si>
+  <si>
+    <t>"Como en la Edad de Piedra". Grabó a una comunidad que todavía vive en las cavernas en pleno 2024</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/en-las-redes/siguio-un-antiguo-rumor-sobre-los-habitantes-de-las-cavernas-y-lo-que-descubrio-lo-espanto-nid15102024/</t>
+  </si>
+  <si>
+    <t>"Es fácil". El truco para que la salsa de tomate de las pastas del domingo no quede ácida</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.arhttps://foodit.lanacion.com.ar/novedades-y-tendencias/el-ingrediente-que-hay-que-agregar-a-la-salsa-de-tomate-para-evitar-la-acidez-que-no-es-el-azucar-nid03092024/</t>
+  </si>
+  <si>
+    <t>Pan de masa madre. ¿Sos principiante? Esta es la receta perfecta para dar los primeros pasos</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.arhttps://foodit.lanacion.com.ar/recetas/pan-de-masa-madre-para-principiantes-nid23092024/</t>
+  </si>
+  <si>
+    <t>Están todo el año en la verdulería. Las 5 verduras que conviene incluir a diario porque ayudan en la digestión</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.arhttps://foodit.lanacion.com.ar/novedades-y-tendencias/las-5-verduras-que-estan-disponibles-todo-el-ano-son-aliadas-para-la-salud-digestiva-y-faciles-de-nid11082024/</t>
+  </si>
+  <si>
+    <t>Blanqueo, más confianza y oportunidades. Repuntó la compraventa de campos agrícolas y ya hay subas del 10% en los precios</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/campo/blanqueo-mas-confianza-y-oportunidades-repunto-la-compraventa-de-campos-agricolas-y-ya-hay-subas-del-nid15102024/</t>
+  </si>
+  <si>
+    <t>Malezas. El innovador asistente virtual que analiza la compatibilidad de las mezclas</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/campo/malezas-el-innovador-asistente-virtual-que-analiza-la-compatibilidad-de-las-mezclas-nid16102024/</t>
   </si>
   <si>
     <t>“Bopreal del campo”. La Mesa de Enlace le presentará al Gobierno un ambicioso plan para bajar las retenciones</t>
@@ -250,82 +481,130 @@
     <t>https://www.lanacion.com.ar/economia/campo/bopreal-del-campo-la-mesa-de-enlace-le-presentara-al-gobierno-un-ambicioso-plan-para-bajar-las-nid15102024/</t>
   </si>
   <si>
-    <t>"Deficiencias e irregularidades". El Gobierno intervino una obra social sindical</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/el-gobierno-intervino-la-obra-social-de-vareadores-tras-detectar-una-serie-de-irregularidades-nid15102024/</t>
-  </si>
-  <si>
-    <t>A quiénes beneficiaría. El Gobierno adelantó que presentará un proyecto de sucesiones extrajudiciales</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/el-gobierno-adelanto-que-presentara-un-proyecto-de-sucesiones-extrajudiciales-nid15102024/</t>
-  </si>
-  <si>
-    <t>La maldición de las estrellas Michelin. Por qué muchos restaurantes que la consiguen cierran poco tiempo después</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/la-maldicion-de-las-estrellas-michelin-por-que-muchos-restaurantes-que-la-consiguen-cierran-poco-nid15102024/</t>
-  </si>
-  <si>
-    <t>Quién es Michelo. La historia del influencer salteño que le hace propaganda a Venezuela y hoy bailó con Maduro</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/la-historia-de-michelo-el-influencer-salteno-que-le-hace-propaganda-a-venezuela-y-hoy-hizo-bailar-a-nid15102024/</t>
-  </si>
-  <si>
-    <t>La doble vida de Camioneros. La insólita medida que le permite al club de los Moyano participar en dos categorías al mismo tiempo</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/camioneros-y-una-doble-vida-la-insolita-medida-que-le-permite-al-club-de-los-moyano-participar-de-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Un buen ejemplo". Meloni defiende su polémico plan para migrantes: empieza el traslado a centros de repatriación en Albania</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/entre-polemicas-llegan-los-primeros-migrantes-a-los-centros-de-repatriacion-construidos-por-meloni-nid15102024/</t>
-  </si>
-  <si>
-    <t>Chacarita. Con su camioneta, una mujer encerró contra una pared al ladrón que quiso robarle armado con una navaja</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/con-su-camioneta-una-mujer-encerro-contra-una-pared-al-ladron-que-quiso-robarle-armado-con-una-nid15102024/</t>
-  </si>
-  <si>
-    <t>Fundada a finales de 1880. La licorería más grande de América del Sur estaba en Villa Urquiza: esta es su historia</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sociedad/la-licoreria-mas-grande-de-america-del-sur-estaba-en-villa-urquiza-esta-es-su-historia-nid15102024/</t>
-  </si>
-  <si>
-    <t>Quién es quién. Estos son los integrantes del equipo técnico de Fernando Gago en Boca</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/quienes-integran-el-cuerpo-tecnico-de-fernando-gago-en-boca-nid15102024/</t>
-  </si>
-  <si>
-    <t>“Al comienzo nadie me entendía”. El italiano que apuesta por el país con una antigua técnica decorativa</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/negocios/el-italiano-que-apuesta-por-el-pais-con-una-antigua-tecnica-decorativa-nid15102024/</t>
-  </si>
-  <si>
-    <t>Un 40%. El tratamiento que podría reducir el riesgo de muerte por uno de los cánceres que más afectan a las mujeres</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sociedad/una-nueva-forma-de-tratar-el-cancer-de-cuello-uterino-reduce-en-un-40-el-riesgo-de-morir-por-la-nid15102024/</t>
-  </si>
-  <si>
-    <t>Dólares. En el campo queda soja sin vender por unos US$11.000 millones a valores de exportación</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/dolares-en-el-campo-queda-soja-sin-vender-por-unos-us11000-millones-a-valores-de-exportacion-nid15102024/</t>
-  </si>
-  <si>
-    <t>“Un milagro”. El hallazgo de un pie en el Everest derriba teorías, pero ¿podrá resolver un misterio centenario?</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/el-hallazgo-de-un-pie-en-el-everest-derriba-teorias-pero-es-dificil-que-resuelva-un-misterio-nid15102024/</t>
+    <t>“Evento responsable”. En el recital de Paul McCartney en Córdoba se usará 100% de biodiésel para los generadores</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/campo/evento-responsable-en-el-recital-de-paul-mccartney-en-cordoba-se-usara-100-de-biodiesel-para-los-nid15102024/</t>
+  </si>
+  <si>
+    <t>Paso a paso. Cómo cargar saldo en tu celular con Mercado Pago</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/tecnologia/como-cargar-saldo-en-tu-celular-con-mercado-pago-nid16102024/</t>
+  </si>
+  <si>
+    <t>País vecino. Cómo activar el “modo Brasil” en WhatsApp</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/tecnologia/como-activar-el-modo-brasil-en-whatsapp-nid16102024/</t>
+  </si>
+  <si>
+    <t>Según la IA. Así se vería el Quico del Chavo del 8 hoy si fuera un niño de verdad</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/tecnologia/asi-se-veria-el-quico-del-chavo-del-8-hoy-si-fuera-un-nino-de-verdad-segun-la-inteligencia-nid16102024/</t>
+  </si>
+  <si>
+    <t>Al CCK ¿ahora hay que decirle CCPLDFS?</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/opinion/al-cck-ahora-hay-que-decirle-ccpldfs-nid16102024/</t>
+  </si>
+  <si>
+    <t>Un ministerio de Economía y Educación</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/opinion/un-ministerio-de-economia-y-educacion-nid16102024/</t>
+  </si>
+  <si>
+    <t>El antisemitismo en la Argentina y el mundo después del 7 de octubre</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/opinion/el-antisemitismo-en-la-argentina-y-el-mundo-despues-del-7-de-octubre-nid16102024/</t>
+  </si>
+  <si>
+    <t>Montoneros, de ayer a hoy (Parte I). Terrorismo urbano y delincuencia organizada</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/editoriales/montoneros-de-ayer-a-hoy-parte-i-terrorismo-urbano-y-delincuencia-organizada-nid16102024/</t>
+  </si>
+  <si>
+    <t>La falsa Navidad de Maduro</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/editoriales/la-falsa-navidad-de-maduro-nid16102024/</t>
+  </si>
+  <si>
+    <t>Presupuesto 2025: contradicción y trampa libertaria</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/opinion/presupuesto-2025-contradiccion-y-trampa-libertaria-nid16102024/</t>
+  </si>
+  <si>
+    <t>Puro talento. A 20 años de Ella está encantada, Anne Hathaway cantó “Somebody to Love” y sorprendió a los fans</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/anne-hathaway-canto-somebody-to-love-20-anos-despues-de-ella-esta-encantada-y-revoluciono-las-redes-nid15102024/</t>
+  </si>
+  <si>
+    <t>Según expertos. El hábito alimenticio al que hay que renunciar a los 50 años para vivir más</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/cuidado-cuerpo-belleza/el-habito-alimenticio-al-que-hay-que-renunciar-a-los-50-anos-para-vivir-mas-nid16102024/</t>
+  </si>
+  <si>
+    <t>¿Se retira? Susana Giménez habría tomado una contundente decisión sobre su carrera en la TV</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/susana-gimenez-habria-tomado-una-contundente-decision-sobre-su-carrera-en-la-tv-nid15102024/</t>
+  </si>
+  <si>
+    <t>Flexible. Cómo es el crédito online que te permite acceder a más de $20 millones de acreditación inmediata</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/credito-online-como-es-el-prestamo-flexible-que-te-permite-acceder-a-mas-de-20-millones-de-nid16102024/</t>
+  </si>
+  <si>
+    <t>Increíble. Su abuelo ahorró durante 70 años en una botella y le dejó una impensada herencia</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/en-las-redes/su-abuelo-ahorro-durante-70-anos-en-un-botellon-y-les-heredo-un-tesoro-de-monedas-antiguas-muy-nid16102024/</t>
+  </si>
+  <si>
+    <t>"Luna del Cazador". Rituales para la Luna llena del jueves 17 de octubre</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/rituales-para-aprovechar-la-energia-de-la-luna-llena-del-jueves-17-de-octubre-nid16102024/</t>
+  </si>
+  <si>
+    <t>Necesario. Cómo influye el magnesio en el aprendizaje y la memoria del cerebro</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/cuidado-cuerpo-belleza/como-influye-el-magnesio-en-el-aprendizaje-y-la-memoria-del-cerebro-nid15102024/</t>
+  </si>
+  <si>
+    <t>En video. Impresionante: hat-trick y dos asistencias del capitán en el festival ante Bolivia</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/el-primer-gol-de-argentina-frente-a-bolivia-nid15102024/</t>
+  </si>
+  <si>
+    <t>Arrancó la segunda rueda. Tabla de posiciones de las Eliminatorias: así se jugó la fecha 10</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/tabla-de-posiciones-de-las-eliminatorias-en-vivo-asi-se-juega-la-fecha-10-nid15102024/</t>
+  </si>
+  <si>
+    <t>Apareció Brasil. Con una goleada despertó el gigante, que ensaya una renovación y cerró una ventana perfecta en octubre</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/eliminatorias-brasil-desperto-con-una-goleada-y-cerro-una-ventana-perfecta-en-octubre-nid16102024/</t>
+  </si>
+  <si>
+    <t>Diego Poggi. Cómo es el estudio desde donde transmite el conductor</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/diego-poggi-como-es-el-estudio-desde-donde-transmite-el-conductor-nid15102024/</t>
   </si>
   <si>
     <t>No hay plata "a la inglesa". Manchester United echó a la leyenda del club que ganó 38 títulos en 26 años</t>
@@ -334,277 +613,16 @@
     <t>https://www.lanacion.com.ar/deportes/futbol/alex-ferguson-entro-en-el-ajuste-presupuestario-de-manchester-united-y-ya-no-sera-el-embajador-del-nid15102024/</t>
   </si>
   <si>
-    <t>Cambios en los medios. Olga desembarca en Mar del Plata, Pocos Correctos cambia de conductor y América se reacomoda</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/cambios-en-los-medios-olga-desembarca-en-mar-del-plata-pocos-correctos-cambia-de-conductor-y-america-nid15102024/</t>
-  </si>
-  <si>
-    <t>Clima enrarecido. Uruguay juega contra Ecuador: un examen para Bielsa, mientras llueven críticas para Luis Suárez</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/eliminatorias-bielsa-y-uruguay-ante-ecuador-en-un-ambiente-enrarecido-y-con-luis-suarez-como-un-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Xana todavía nos ve". El conmovedor relato del DT español Luis Enrique sobre la pérdida de su hija</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/luis-enrique-en-su-costado-mas-personal-el-conmovedor-relato-del-recuerdo-de-su-hija-xana-nid15102024/</t>
-  </si>
-  <si>
-    <t>La TV del martes. Argentina, con Messi, recibe a Bolivia, más eliminatorias sudamericanas y sigue la UEFA Nations League</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/la-agenda-de-la-tv-del-martes-argentina-con-messi-recibe-a-bolivia-mas-eliminatorias-y-la-uefa-nid14102024/</t>
-  </si>
-  <si>
-    <t>Creció un 8%. Las dos razones que explican el aumento de capitalización del mercado de criptomonedas</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/IA/las-dos-razones-que-explican-el-aumento-de-capitalizacion-del-mercado-de-criptomonedas-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Detectar oportunidades". Empezaron con un camping en La Angostura y hoy tienen 200 hoteles de clientes</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/IA/empezaron-con-un-camping-en-la-angostura-y-hoy-tienen-200-hoteles-de-clientes-nid15102024/</t>
-  </si>
-  <si>
-    <t>Estafas. Las claves para meterse en una de las inversiones estrella del año (y no caer en un fraude)</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/tecnologia/8-cosas-que-tenes-que-saber-antes-de-invertir-en-cripto-para-no-caer-en-una-estafa-nid15102024/</t>
-  </si>
-  <si>
-    <t>“Probabilidad del 71%”. Un organismo anticipó el rumbo decisivo del clima hasta todo noviembre</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/probabilidad-del-71-un-organismo-anticipo-que-pasara-con-un-factor-decisivo-del-clima-hasta-nid14102024/</t>
-  </si>
-  <si>
-    <t>Modo Xeneize. La novia de Gago celebró la presentación del DT de Boca y mostró su look para la ocasión</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/la-novia-de-fernando-gago-celebro-la-presentacion-del-entrenador-de-boca-y-mostro-su-look-para-la-nid15102024/</t>
-  </si>
-  <si>
-    <t>Champagne, risas y rigurosa etiqueta. A 40 años del Premio Nobel obtenido por César Milstein, los detalles de una ceremonia inolvidable</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/champagne-risas-y-rigurosa-etiqueta-a-40-anos-del-premio-nobel-obtenido-por-cesar-milstein-los-nid15102024/</t>
-  </si>
-  <si>
-    <t>Diva eterna. Joan Collins se mostró espléndida a los 91 años durante una tarde de compras</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/personajes/diva-eterna-joan-collins-se-mostro-esplendida-a-los-91-durante-una-tarde-de-compras-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Fue un malentendido". Marcelo Iripino: de las muertes que lo atravesaron a la charla íntima que tuvo con Susana y su gran historia de amor</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/personajes/marcelo-iripino-de-las-muertes-que-lo-atravesaron-a-la-charla-intima-que-tuvo-con-susana-y-su-gran-nid15102024/</t>
-  </si>
-  <si>
-    <t>“Robo a mano armada”. Una productora le ganó un juicio a un municipio por cobrar una tasa “ilegítima” de iluminación</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/robo-a-mano-armada-una-productora-le-gano-un-juicio-a-un-municipio-por-cobrar-una-tasa-ilegitima-de-nid14102024/</t>
-  </si>
-  <si>
-    <t>“El General Lavalle la aferró a la vida”. Llegó de Uruguay atravesada por la tragedia para  reparar el nombre del padre y dejó un legado invaluable</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/llego-de-uruguay-atravesada-por-la-tragedia-para-reparar-el-nombre-del-padre-y-dejo-un-legado-nid15102024/</t>
-  </si>
-  <si>
-    <t>Entregado por segunda vez a una mujer. La argentina Lola Arias recibió el Premio Ibsen en Noruega, en medio de la gira de Reas y Los días afuera</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/teatro/la-dramaturga-argentina-lola-arias-recibio-el-premio-ibsen-en-noruega-en-medio-de-la-gira-de-reas-y-nid15102024/</t>
-  </si>
-  <si>
-    <t>Mercado intervenido. El gobierno ruso les “recomendó” a los exportadores un precio mínimo para vender trigo</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/agricultura/mercado-intervenido-el-gobierno-ruso-les-recomendo-a-los-exportadores-un-precio-minimo-para-vender-nid15102024/</t>
-  </si>
-  <si>
-    <t>Conocido como Fazer. Nació en Funes y hoy es un referente mundial en Fortnite: la historia de Tomás Petunchi</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/tecnologia/nacio-en-funes-y-hoy-es-un-referente-mundial-en-fortnite-la-historia-de-tomas-fazer-petunchi-nid15102024/</t>
-  </si>
-  <si>
-    <t>¿Se puede tirar esta pared? La pregunta del millón cuando evaluamos comprar una propiedad</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/revista-living/se-puede-tirar-esta-pared-la-pregunta-del-millon-cuando-evaluamos-comprar-una-propiedad-nid15102024/</t>
-  </si>
-  <si>
-    <t>En fotos. De las paradisíacas vacaciones de Julieta Nair Calvo en familia a la visita de Zaira Nara a Bake Off famosos</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/personajes/en-fotos-de-las-paradisiacas-vacaciones-de-julieta-nair-calvo-en-familia-a-la-visita-de-zaira-nara-a-nid15102024/</t>
-  </si>
-  <si>
-    <t>Monja y autodidacta. Recuperan la casa de la santafesina que fue la primera artista plástica con firma propia en América</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/revista-lugares/recuperan-la-casa-de-la-primera-artista-plastica-con-firma-de-america-nid15102024/</t>
-  </si>
-  <si>
-    <t>Bebés hiperrealistas. Cómo se confeccionan los muñecos que despiertan amor y odio en las redes sociales y varios famosos ya compraron</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/cuanto-cuesta-un-bebe-una-artista-confecciona-munecos-hiperrealistas-y-despierta-la-polemica-en-las-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Escuchamos ruidos de noche". Bajó al sótano de su casa sin esperar la monstruosidad que encontraría</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/propiedades/casas-y-departamentos/bajo-al-sotano-de-su-casa-en-california-sin-esperar-la-monstruosidad-que-encontraria-nid14102024/</t>
-  </si>
-  <si>
-    <t>Scones de yogur. ¡Tan suaves que se desarman en la boca!</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.arhttps://foodit.lanacion.com.ar/recetas/scones-de-yogur-nid26032024/</t>
-  </si>
-  <si>
-    <t>“Evento responsable”. En el recital de Paul McCartney en Córdoba se usará 100% de biodiésel para los generadores</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/evento-responsable-en-el-recital-de-paul-mccartney-en-cordoba-se-usara-100-de-biodiesel-para-los-nid15102024/</t>
-  </si>
-  <si>
-    <t>Ataques sorpresivos. Un productor contó el inquietante momento que vivió al encontrarse con uno de los pumas que atemorizan a una región</t>
-  </si>
-  <si>
-    <t>En el mundo. Por qué se conmemora el Día Internacional de las Mujeres Rurales</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/en-el-mundo-por-que-se-conmemora-el-dia-internacional-de-las-mujeres-rurales-nid15102024/</t>
-  </si>
-  <si>
-    <t>Los usará para expandirse. Un reconocido holding de agronegocios colocó US$20 millones en obligaciones negociables</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/campo/los-usara-para-expandirse-un-reconocido-holding-de-agronegocios-coloco-us20-millones-en-obligaciones-nid14102024/</t>
-  </si>
-  <si>
-    <t>App SUBE. Cómo configurar la alarma que avisa cuando tenés saldo bajo en la tarjeta</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/tecnologia/sube-como-configurar-la-alarma-que-avisa-cuando-tenes-saldo-bajo-y-es-necesario-recargar-la-tarjeta-nid15102024/</t>
-  </si>
-  <si>
-    <t>Optimización. Cómo actualizar aplicaciones en un Smart TV</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/tecnologia/como-actualizar-youtube-en-mi-smart-tv-nid15102024/</t>
-  </si>
-  <si>
-    <t>Imágenes. Así se vería Tini como personaje de cómic, según la inteligencia artificial</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/tecnologia/asi-se-veria-tini-como-personaje-de-comic-segun-la-inteligencia-artificial-nid15102024/</t>
-  </si>
-  <si>
-    <t>Elecciones 2025: empezó la pelea por la lapicera</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/elecciones-2025-empezo-la-pelea-por-la-lapicera-nid15102024/</t>
-  </si>
-  <si>
-    <t>Milei y el nuevo modelo de la violencia institucional</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/milei-y-el-nuevo-modelo-de-la-violencia-institucional-nid15102024/</t>
-  </si>
-  <si>
-    <t>Atraso cambiario y elecciones: ¿esta vez será diferente?</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/atraso-cambiario-y-elecciones-esta-vez-sera-diferente-nid14102024/</t>
-  </si>
-  <si>
-    <t>Epidemia de problemas mentales</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/editoriales/epidemia-de-problemas-mentales-nid15102024/</t>
-  </si>
-  <si>
-    <t>Academia y sesgo izquierdista</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/editoriales/academia-y-sesgo-izquierdista-nid15102024/</t>
-  </si>
-  <si>
-    <t>El mito de que Trump fue un gran presidente</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/opinion/el-mito-de-que-trump-fue-un-gran-presidente-nid15102024/</t>
-  </si>
-  <si>
-    <t>“Muy directa”. Cami Homs reveló la frase con la que conquistó a José Sosa y sorprendió a todos</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/camila-homs-revelo-la-frase-con-la-que-conquisto-a-jose-sosa-y-sorprendio-a-todos-muy-directa-nid15102024/</t>
-  </si>
-  <si>
-    <t>Furor en Netflix. La atrapante serie italiana de seis capítulos que destronó a Envidiosa del primer puesto</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/de-que-trata-engano-la-serie-italiana-de-6-capitulos-que-destrono-del-podio-de-netflix-a-envidiosa-nid15102024/</t>
-  </si>
-  <si>
-    <t>Múltiples beneficios. Qué le pasa al cuerpo al comer membrillo todos los días</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/cuidado-cuerpo-belleza/que-le-pasa-al-cuerpo-al-comer-membrillo-todos-los-dias-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Fue mi primera novia". Sofi Morandi le contó a Moria Casán detalles de su reciente separación</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/sofi-morandi-le-conto-a-moria-casan-detalles-de-su-reciente-separacion-fue-mi-primera-novia-nid15102024/</t>
-  </si>
-  <si>
-    <t>Modo bartender. Máxima sorprendió a todos con su habilidad para preparar tragos</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/en-las-redes/en-modo-bartender-maxima-zorreguieta-sorprendio-a-todos-con-su-habilidad-para-preparar-tragos-nid15102024/</t>
-  </si>
-  <si>
-    <t>Sorprendente. Por qué los gatos duermen sobre la cabeza de sus dueños</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/mascotas/por-que-los-gatos-duermen-sobre-la-cabeza-de-sus-duenos-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Como en la Edad de Piedra". Un hombre grabó a una comunidad que todavía vive en las cavernas en pleno 2024</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/en-las-redes/siguio-un-antiguo-rumor-sobre-los-habitantes-de-las-cavernas-y-lo-que-descubrio-lo-espanto-nid15102024/</t>
-  </si>
-  <si>
-    <t>"Una plataforma de campaña”. El Gobierno dijo que avanzará con la privatización de Corredores Viales y AySA</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/el-gobierno-dijo-que-avanzara-con-la-privatizacion-de-corredores-viales-y-aysa-fue-una-plataforma-de-nid15102024/</t>
-  </si>
-  <si>
-    <t>Diego Poggi. Cómo es el estudio desde donde transmite el conductor</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/diego-poggi-como-es-el-estudio-desde-donde-transmite-el-conductor-nid15102024/</t>
-  </si>
-  <si>
-    <t>Dolor... hasta en las tesorerías. Las lesiones les costaron a las grandes ligas 732 millones de euros en la última temporada</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/las-lesiones-les-costaron-a-las-grandes-ligas-732-millones-de-euros-en-la-ultima-temporada-pasada-nid15102024/</t>
+    <t>Promoción. En medio de la discusión por su futuro, Aerolíneas Argentinas anunció su oferta de vuelos para la temporada de verano 2025</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/en-medio-de-la-discusion-por-su-futuro-aerolineas-argentinas-anuncio-su-oferta-de-vuelos-para-la-nid15102024/</t>
+  </si>
+  <si>
+    <t>Mendoza. Con Oasis, la mejor arquitectura del continente llega a Palmares Valley</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/propiedades/mendoza-con-oasis-la-mejor-arquitectura-del-continente-llega-a-palmares-valley-nid16102024/</t>
   </si>
   <si>
     <t>Sueldos. El salario formal creció menos que la inflación en agosto</t>
@@ -613,34 +631,28 @@
     <t>https://www.lanacion.com.ar/economia/el-salario-formal-crecio-menos-que-la-inflacion-en-agosto-nid14102024/</t>
   </si>
   <si>
-    <t>Aumento de la tasa aeroportuaria. Cuánto subirán los pasajes de cabotaje tras la medida del Gobierno</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/aumento-de-la-tasa-aeroportuaria-cuanto-aumentaran-los-pasajes-de-cabotaje-tras-la-medida-del-nid14102024/</t>
-  </si>
-  <si>
     <t>Vaca Muerta. Cómo se está resolviendo el desafío de alojamiento en la zona</t>
   </si>
   <si>
     <t>https://www.lanacion.com.ar/propiedades/vaca-muerta-como-se-esta-resolviendo-el-desafio-de-alojamiento-en-la-zona-nid15102024/</t>
   </si>
   <si>
-    <t>Enigmático resuelto. Se conoció quién está detrás del cartel “Estudiar en este siglo es un acto de rebeldía”</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/se-conocio-quien-esta-detras-del-cartel-estudiar-en-este-siglo-es-un-acto-de-rebeldia-nid15102024/</t>
-  </si>
-  <si>
-    <t>Los Piojos y una vuelta “manchada”: peleas por la marca y el reparto de las ganancias, acusaciones cruzadas y un último sueño</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/musica/los-piojos-y-una-vuelta-manchada-peleas-por-la-marca-y-el-reparto-de-las-ganancias-acusaciones-nid15102024/</t>
-  </si>
-  <si>
-    <t>"La más molesta". Catherine Fulop habló sobre la operación que se realizó Osvaldo Sabatini: le reemplazaron la cadera</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/personajes/catherine-fulop-sobre-la-salud-de-ova-sabatini-como-fue-la-operacion-de-reemplazo-de-cadera-y-cuales-nid15102024/</t>
+    <t>"Todos la odiaban". Sylvester Stallone calificó todas las películas de Rocky y no tuvo piedad con una de las entregas</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/personajes/sylvester-stallone-califico-todas-las-peliculas-de-rocky-y-no-tuvo-piedad-con-una-de-las-entregas-nid14102024/</t>
+  </si>
+  <si>
+    <t>"Controlaban hasta mi cuenta bancaria". Una secta, una doble vida y un pastor abusivo: la estrella de One Tree Hill que logró salir de la oscuridad</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/personajes/una-secta-una-doble-vida-y-un-pastor-abusivo-la-estrella-de-one-tree-hill-que-logro-salir-de-la-nid15102024/</t>
+  </si>
+  <si>
+    <t>"No puede ser que me equivoque". Errores al aire y bloopers imperdonables: Susana le reclamó mayor profesionalismo a su producción</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/television/errores-al-aire-y-bloopers-imperdonables-susana-le-reclamo-mayor-profesionalismo-a-su-produccion-nid15102024/</t>
   </si>
   <si>
     <t>Para asadores. Los tres errores más comunes, los nuevos cortes y cómo recalentar el asado del día anterior, según el chef de La Cabrera</t>
@@ -685,10 +697,22 @@
     <t>https://www.lanacion.com.ar/salud/nutricion/estas-son-las-10-mejores-especias-con-poder-antiinflamatorio-antioxidante-y-beneficios-digestivos-nid13102024/</t>
   </si>
   <si>
-    <t>Revolución en la salud argentina. El CONICET trabajó en crear un yogur con probióticos que contribuye a la salud respiratoria y gastrointestinal</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/salud/nutricion/revolucion-en-la-salud-argentina-el-conicet-trabajo-en-crear-un-yogur-con-probioticos-que-contribuye-nid15102024/</t>
+    <t>En cualquier momento y lugar. Cuál es el alimento que te brinda versatilidad y nutrientes al mismo tiempo</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/salud/nutricion/en-cualquier-momento-y-lugar-cual-es-el-alimento-que-te-brinda-versatilidad-y-nutrientes-al-mismo-nid16102024/</t>
+  </si>
+  <si>
+    <t>Cinco pasos. Qué es y cómo funciona el "hypermiling", la nueva técnica para ahorrar nafta al manejar</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/autos/que-es-y-como-funciona-el-hypermiling-la-nueva-tecnica-para-ahorrar-nafta-al-manejar-nid15102024/</t>
+  </si>
+  <si>
+    <t>Salón de París. Estas son todas las primicias mundiales en un show que recobró su brillo</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/autos/salon-de-paris-primicias-mundiales-autos-electricos-y-un-show-que-recobro-su-brillo-nid14102024/</t>
   </si>
   <si>
     <t>Otro salto. Cuánto cuestan en dólares los autos más baratos tras la baja del blue</t>
@@ -697,24 +721,12 @@
     <t>https://www.lanacion.com.ar/autos/cuanto-cuestan-en-dolares-los-autos-mas-baratos-tras-la-baja-del-blue-nid13102024/</t>
   </si>
   <si>
-    <t>Cuánto cuesta. Fiat presentó una nueva versión de entrada de gama para su pick up Toro</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/autos/fiat-presento-una-nueva-version-de-entrada-de-gama-para-su-pick-up-toro-como-es-y-cuanto-cuesta-nid12102024/</t>
-  </si>
-  <si>
     <t>Lanzamientos. Estos son los autos que tendrán un restyling en los próximos meses</t>
   </si>
   <si>
     <t>https://www.lanacion.com.ar/autos/estos-son-los-autos-que-tendran-un-restyling-en-los-proximos-meses-nid10102024/</t>
   </si>
   <si>
-    <t>Nuevos precios. Cuánto cuesta la Volkswagen Amarok en octubre</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/autos/cuanto-cuesta-la-volkswagen-amarok-en-octubre-2024-nid11102024/</t>
-  </si>
-  <si>
     <t>"Un oasis a metros de Libertador". El barrio trendy que se impone como el polo de los cafecitos y la nueva gastronomía</t>
   </si>
   <si>
@@ -769,22 +781,16 @@
     <t>https://www.lanacion.com.ar/sabado/preocupacion-por-los-nuevos-usos-del-ozempic-nid15102024/</t>
   </si>
   <si>
-    <t>Medicina estética. Cómo potenciar la belleza natural</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/medicina-estetica-como-potenciar-la-belleza-natural-nid15102024/</t>
-  </si>
-  <si>
-    <t>En Lanús. Una clase de Kangoo que desafió a celebridades y vecinos a dar los primeros pasos en el deporte</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/en-lanus-una-clase-de-kangoo-que-desafio-a-celebridades-y-vecinos-a-dar-los-primeros-pasos-en-el-nid15102024/</t>
-  </si>
-  <si>
-    <t>El Calafate. Hoteles y restaurantes recomendados cerca del glaciar Perito Moreno</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/revista-lugares/buenos-hoteles-y-restaurantes-en-el-calafate-nid05102024/</t>
+    <t>Día del Campus. La vida universitaria que prioriza al 100% el bienestar de sus alumnos</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/dia-del-campus-la-vida-universitaria-que-prioriza-al-100-el-bienestar-de-sus-alumnos-nid16102024/</t>
+  </si>
+  <si>
+    <t>La "calle del pecado". Un pasaje sin nombre, testigo de corridas de toros, amores trágicos y fantasmas en Buenos Aires</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/un-pasaje-sin-nombre-testigo-de-corridas-de-toros-amores-tragicos-y-fantasmas-los-secretos-y-la-nid10102024/</t>
   </si>
   <si>
     <t>Menos ácido que el limón y no tan dulce como la naranja. Esta fruta protege contra la diabetes y es ideal para empezar el día</t>
@@ -793,28 +799,34 @@
     <t>https://www.lanacion.com.ar/revista-jardin/la-fruta-de-la-huerta-que-protege-contra-la-diabetes-y-es-ideal-para-empezar-el-dia-nid14102024/</t>
   </si>
   <si>
-    <t>Descanso. Todos los feriados de noviembre 2024</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/feriados/2024/todos-los-feriados-de-noviembre-2024-nid14102024/</t>
-  </si>
-  <si>
-    <t>Luna del Cazador. Así se puede ver el sorprendente fenómeno astronómico en la Argentina</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/lifestyle/luna-del-cazador-asi-se-puede-ver-el-sorprendente-fenomeno-astronomico-en-la-argentina-nid15102024/</t>
-  </si>
-  <si>
-    <t>Puntos sensibles. Qué es lo que más les molesta a las personas Libra</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/horoscopo/que-es-lo-que-mas-les-molesta-a-las-personas-libra-y-cuales-son-sus-puntos-sensibles-nid15102024/</t>
-  </si>
-  <si>
-    <t>Regalo ideal. Cinco poemas para enviar en el Día de la Madre</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sociedad/poemas-para-enviar-en-el-dia-de-la-madre-nid15102024/</t>
+    <t>“¿Por qué te viniste acá?”. La panadera alemana que fue premiada en Europa y vive en la provincia de Buenos Aires</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/revista-lugares/la-panadera-alemana-que-vive-en-la-provincia-de-buenos-aires-y-fue-premiada-en-europa-nid15102024/</t>
+  </si>
+  <si>
+    <t>Día de la Alimentación. Todo lo que hay que tener en cuenta para alcanzar una dieta balanceada</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/dia-de-la-alimentacion-por-que-se-celebra-hoy-y-consejos-para-tener-una-dieta-balanceada-nid16102024/</t>
+  </si>
+  <si>
+    <t>Descanso. A qué grupo de trabajadores le corresponde el feriado del jueves 17 de octubre</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/feriados/2024/feriado-local-a-que-grupo-de-trabajadores-le-corresponde-el-asueto-del-jueves-17-de-octubre-nid15102024/</t>
+  </si>
+  <si>
+    <t>Cuenta regresiva. La fecha exacta para ver la Luna del Cazador desde la Argentina</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/lifestyle/luna-del-cazador-2024-la-fecha-exacta-para-ver-la-luna-mas-imponente-del-ano-nid15102024/</t>
+  </si>
+  <si>
+    <t>Nueva cifra. A cuánto aumenta la PUAM en noviembre</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/anses-cuanto-cobro-de-puam-en-noviembre-de-2024-nid16102024/</t>
   </si>
 </sst>
 </file>
@@ -1180,13 +1192,13 @@
   <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="99.06640625" customWidth="1"/>
-    <col min="2" max="2" width="122.73046875" customWidth="1"/>
+    <col min="1" max="1" width="72.265625" customWidth="1"/>
+    <col min="2" max="2" width="57.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -1250,1047 +1262,1047 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
